--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0A1E5-B6F6-4667-B1F9-3579590F477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C01579-C629-48D2-B39E-9AB2219A476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>5 / 0 / 1</t>
   </si>
   <si>
-    <t>Odin eco upgrades - Looki - advanced</t>
-  </si>
-  <si>
     <t>2 hunt</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>great_hunt</t>
+  </si>
+  <si>
+    <t>Eco upgrades - By Looki - advanced</t>
   </si>
 </sst>
 </file>
@@ -447,9 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -460,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -495,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -503,12 +501,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -516,15 +514,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -532,37 +530,37 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -575,20 +573,20 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C01579-C629-48D2-B39E-9AB2219A476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB00851-9580-4385-863F-6D7C343DBB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>great_hunt</t>
   </si>
   <si>
-    <t>Eco upgrades - By Looki - advanced</t>
+    <t>OUTDATED - Eco upgrades - By Looki - advanced</t>
   </si>
 </sst>
 </file>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB00851-9580-4385-863F-6D7C343DBB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AACBC3-8157-4498-B0E3-F6472FD8F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Archaic</t>
   </si>
@@ -112,13 +113,466 @@
   </si>
   <si>
     <t>OUTDATED - Eco upgrades - By Looki - advanced</t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold / Favor</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 gatherers to food
+ox cart goes to gold</t>
+  </si>
+  <si>
+    <t>Research Pickaxe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 dwarf to gold</t>
+  </si>
+  <si>
+    <r>
+      <t>3 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>after 50 wood make an ox cart to wood</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Handaxe</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Berserker builds a House</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Berserker builds a Temple</t>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (3.36)</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Start training Hersir</t>
+  </si>
+  <si>
+    <t>Classical (4.36)</t>
+  </si>
+  <si>
+    <r>
+      <t>6 / 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Add a few dwarves to gold</t>
+  </si>
+  <si>
+    <t>1 gatherer to wood</t>
+  </si>
+  <si>
+    <t>1 gatherer to food</t>
+  </si>
+  <si>
+    <t>2 gatherers to wood</t>
+  </si>
+  <si>
+    <t>2 gatherers to food</t>
+  </si>
+  <si>
+    <t>move a gatherer from food to wood</t>
+  </si>
+  <si>
+    <t>Berserk builds a House</t>
+  </si>
+  <si>
+    <t>Early eco ups - by Husksuppe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +587,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +634,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,15 +649,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +1016,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADDC42-BEB8-4B0C-8D96-AA8F9BC1E623}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AACBC3-8157-4498-B0E3-F6472FD8F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80472FAD-C478-4BC4-8052-849DF06AC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Archaic</t>
   </si>
@@ -566,13 +566,16 @@
   </si>
   <si>
     <t>Early eco ups - by Husksuppe</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wI9wAv6wNrA?si=PbrulWvonPu66zWP&amp;t=453</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +622,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -702,10 +713,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -737,8 +749,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADDC42-BEB8-4B0C-8D96-AA8F9BC1E623}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1239,11 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -1232,6 +1251,9 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A18:D18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" tooltip="https://youtu.be/wI9wAv6wNrA?si=PbrulWvonPu66zWP&amp;t=453" xr:uid="{F90A9473-BDBF-461C-9296-774A27584F5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80472FAD-C478-4BC4-8052-849DF06AC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6AB14D-D55D-4853-8173-327D455CC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -731,6 +731,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -749,7 +750,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1033,29 +1033,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADDC42-BEB8-4B0C-8D96-AA8F9BC1E623}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -1183,15 +1183,15 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1213,15 +1213,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1239,8 +1239,8 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1262,33 +1262,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="98.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1383,12 +1383,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1396,12 +1396,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6AB14D-D55D-4853-8173-327D455CC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F1D68-E67D-4BF7-BE11-A3ECE3298C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>Archaic</t>
   </si>
@@ -569,13 +571,242 @@
   </si>
   <si>
     <t>https://youtu.be/wI9wAv6wNrA?si=PbrulWvonPu66zWP&amp;t=453</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 3 vills on food, one build oxcard</t>
+  </si>
+  <si>
+    <t>3 / 0 / 1 / 0</t>
+  </si>
+  <si>
+    <t>1dwarf with starting oxcard</t>
+  </si>
+  <si>
+    <t>3 / 2 / 1 / 0</t>
+  </si>
+  <si>
+    <t>1 wood he build oxcard + 1 wood again</t>
+  </si>
+  <si>
+    <t>3 / 2 / 2 / 0</t>
+  </si>
+  <si>
+    <t>1 to Gold</t>
+  </si>
+  <si>
+    <t>5/ 2 / 2 / 0</t>
+  </si>
+  <si>
+    <t>2 to Food</t>
+  </si>
+  <si>
+    <t>build house before 13 pop</t>
+  </si>
+  <si>
+    <t>5 / 2 / 3 / 0</t>
+  </si>
+  <si>
+    <t>1dwarf</t>
+  </si>
+  <si>
+    <t>After 3 dwarfs, at 150g build temple</t>
+  </si>
+  <si>
+    <t>7 / 2 / 3 / 0</t>
+  </si>
+  <si>
+    <t>7 / 3 / 3 / 0</t>
+  </si>
+  <si>
+    <t>1 wood</t>
+  </si>
+  <si>
+    <t>7 / 3 / 4 / 0</t>
+  </si>
+  <si>
+    <t>1 dwarf</t>
+  </si>
+  <si>
+    <t>Advance – Freya (3.15)</t>
+  </si>
+  <si>
+    <t>5 / 5 / 4 / 3</t>
+  </si>
+  <si>
+    <t>Move 2 food to wood</t>
+  </si>
+  <si>
+    <t>Build 2 house and train 3 hersir, 2 hersir can go take relics</t>
+  </si>
+  <si>
+    <t>1 raven scoot ennemy base, one map</t>
+  </si>
+  <si>
+    <t>Classical (4.15)</t>
+  </si>
+  <si>
+    <t>5 / 5 / 6 / 3</t>
+  </si>
+  <si>
+    <t>2 dwarf</t>
+  </si>
+  <si>
+    <t>Build 2 great hall and start walling your base</t>
+  </si>
+  <si>
+    <t>10 / 0 / 6 / 3</t>
+  </si>
+  <si>
+    <t>Move all wood to food</t>
+  </si>
+  <si>
+    <t>you now should have 150/200 wood. 
+With the extra wood you can build new oxcard for wood villager and house</t>
+  </si>
+  <si>
+    <t>10 / 4 / 6 / 3</t>
+  </si>
+  <si>
+    <t>4 wood</t>
+  </si>
+  <si>
+    <t>10 / 4 / 10 / 3</t>
+  </si>
+  <si>
+    <t>Mix vill and dwarf on gold untill 8 dwarf</t>
+  </si>
+  <si>
+    <t>then move 2 vill from gold to food</t>
+  </si>
+  <si>
+    <t>you can now spam rc, and adapt to your next strategy</t>
+  </si>
+  <si>
+    <t>1 TC RC - By Léonce</t>
+  </si>
+  <si>
+    <t>2 TC odin - By Léonce</t>
+  </si>
+  <si>
+    <t>5 / 2 / 4 / 0</t>
+  </si>
+  <si>
+    <t>2 dwarfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>force drop gold for 4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dwarf</t>
+    </r>
+  </si>
+  <si>
+    <t>5 / 5 / 4 / 0</t>
+  </si>
+  <si>
+    <t>3 to wood</t>
+  </si>
+  <si>
+    <t>After 4 dwarfs, at 150g build temple</t>
+  </si>
+  <si>
+    <t>5 / 5 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Advance – heimdall (3.36)</t>
+  </si>
+  <si>
+    <t>3 / 5 / 7 / 3</t>
+  </si>
+  <si>
+    <t>Move 2 food to gold</t>
+  </si>
+  <si>
+    <t>Build 1 house and train 3 hersir</t>
+  </si>
+  <si>
+    <t>5 / 5 / 5 / 3</t>
+  </si>
+  <si>
+    <t>vill to food</t>
+  </si>
+  <si>
+    <t>move back vill on gold to food</t>
+  </si>
+  <si>
+    <t>Instant build TC and pre-queue rigsthula</t>
+  </si>
+  <si>
+    <t>9 / 5 / 5 / 3</t>
+  </si>
+  <si>
+    <t>depends of your strategy, 1 TC full food, 2 TC full dwarf or mix of dwarf + vill on gold</t>
+  </si>
+  <si>
+    <t>if TC have idle time you should have some gold to train dwarf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +862,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +953,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -713,11 +1029,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -732,6 +1050,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -750,10 +1076,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{61732208-7CA0-4B11-A373-9A79B6EA098D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{32958AC9-665C-4DBA-9163-560A4773402D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,27 +1373,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADDC42-BEB8-4B0C-8D96-AA8F9BC1E623}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1184,12 +1524,12 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -1214,12 +1554,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
@@ -1259,10 +1599,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B0C65D-747D-4450-97BA-4845EDE66ADE}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="C18:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1C384-FFE0-4A4D-8C09-0D215D36435B}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F1D68-E67D-4BF7-BE11-A3ECE3298C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3FC78-4905-48F9-BF0C-E90A8D0A8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
+    <sheet name="Feuil6" sheetId="7" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="216">
   <si>
     <t>Archaic</t>
   </si>
@@ -800,13 +803,1143 @@
   </si>
   <si>
     <t>if TC have idle time you should have some gold to train dwarf</t>
+  </si>
+  <si>
+    <t>Standard Water - Léonce</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 Vills + Ox Cart on Wood
+1 Vill build Ox Cart (Ox Cart to Gold), then builds a dock, then back to Wood</t>
+  </si>
+  <si>
+    <t>Auto-Queue Fishing Ships</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Dwarf to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Build a House, Force Drop Wood for a new Fishing Ships for no idle time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 2 / 0 </t>
+    </r>
+  </si>
+  <si>
+    <t>Aim for 7 Fishing Ships, then Temple before 3.06,
+one extra boat after temple (stop auto-queue Fishing Ships)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (3.36) - Freya</t>
+  </si>
+  <si>
+    <t>Make a 2nd Dock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+4 Food to Wood</t>
+  </si>
+  <si>
+    <t>Pre-queue Hand Axe + Pickaxe</t>
+  </si>
+  <si>
+    <t>Build 1 more Fishing Ship (9 in total)</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Spam War Boats</t>
+  </si>
+  <si>
+    <t>Send Valkery to enemy Woodline and cast Forest Fire
+(Goal = villager idle time)</t>
+  </si>
+  <si>
+    <t>Focus: Fight the water defensively. 
+If needed, you can skip 1 War Boat to build a Longhouse/ Great Hall</t>
+  </si>
+  <si>
+    <t>Berserk scouts + builds House when needed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills:
+2 Build Ox Cart and go to Food
+Initial Ox Cart to Gold
+1 to Wood (Strangler tree close to Ox Cart)</t>
+  </si>
+  <si>
+    <t>Cast Great Hunt on Food</t>
+  </si>
+  <si>
+    <t>Pre-queue Pickaxe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ox Cart on Wood with strangler vill once you have 50 wood after pickaxe </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Wood</t>
+  </si>
+  <si>
+    <t>Pre-queue a Dwarf on gold when you have 60 Gold, should be around when you have 2 on Wood</t>
+  </si>
+  <si>
+    <t>Pre-queue Hand Axe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food</t>
+  </si>
+  <si>
+    <t>Once enough resources (after Hand Axe): Beserk makes Temple</t>
+  </si>
+  <si>
+    <t>Scout with Ravens at enemy base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance (Freya) </t>
+  </si>
+  <si>
+    <t>Make Hersirs (max 3) to pick up Relics</t>
+  </si>
+  <si>
+    <t>Pre-queue Husbandry</t>
+  </si>
+  <si>
+    <t>Build Houses when needed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food (Chickens + Ox Cart)</t>
+  </si>
+  <si>
+    <t>Build Market</t>
+  </si>
+  <si>
+    <t>Scout with Myth Unit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 Dwarf to Gold</t>
+  </si>
+  <si>
+    <t>Sell Wood at Market to be able to Age up</t>
+  </si>
+  <si>
+    <t>Leave one Raven at his base (to cast Walking Woods)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance (Njord) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / 7 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+6 Food villagers to Wood (different Woodline + new Ox Cart) -&gt; Prepare for Huskarl production</t>
+  </si>
+  <si>
+    <t>If enemy is heavy on Halbs: add in 2 Longhouses (for TA)
+If enemy is heavy on Archers / Dao: add in 2 Great Halls (for Jarls)
+(get either Medium Infantry or Medium Cav depending on situation)</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>Build Hill Fort next to 2nd Gold Mine</t>
+  </si>
+  <si>
+    <t>Walking Woods:
+- On Defence if needed
+- If you scout his army is out of position, you can cast it on his base to take down the TC or make him go back with his army</t>
+  </si>
+  <si>
+    <t>Make Huskarls (China can't really deal with them well) + Jarls or TA</t>
+  </si>
+  <si>
+    <t>Fast Heroic (Anti-China) - By Golden Royal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 Vills + Ox Cart on Wood
+1 food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This build is hard
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>because you need to force drop your food villager and fish a lot 
+but you have 0 idle time to build fishing boat</t>
+    </r>
+  </si>
+  <si>
+    <t>build dock and Auto-Queue Fishing Ships</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>the last villager build ox card and send to gold mine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 6 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>build house between 11 to 13 pop depending of your wood in bank (don’t idle fish)</t>
+  </si>
+  <si>
+    <t>1 / 6 / 2 / 0</t>
+  </si>
+  <si>
+    <t>build a second dock on the other side of the map</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / 8 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>cut your first dock auto queue (6 or 7 fish) and build another house</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>start building your 3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dock and once you have 150g stop build dock for temple (3.45 max)
+And start auto queue fish on both side to get your 18 fish</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 8 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 8 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>for drop every food source for 400 food</t>
+  </si>
+  <si>
+    <t>Advance (4.15) - Freya</t>
+  </si>
+  <si>
+    <t>Make a 4nd Dock</t>
+  </si>
+  <si>
+    <t>build hersir</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0 / 12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-queue Hand Axe + Pickaxe </t>
+  </si>
+  <si>
+    <t>Classical (5.15) - Freya</t>
+  </si>
+  <si>
+    <t>You can go land / water or both</t>
+  </si>
+  <si>
+    <t>Send Valk to enemy Woodline and cast Forest Fire
+(Goal = villager idle time)</t>
+  </si>
+  <si>
+    <t>Special anatolia build - Léonce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,8 +2068,255 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,8 +2347,68 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1028,14 +2468,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="5"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1058,6 +2538,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1088,12 +2616,83 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="29">
+    <cellStyle name="Accent 1 5" xfId="8" xr:uid="{837A90DC-7FBC-4E71-AEF1-90BE83E03415}"/>
+    <cellStyle name="Accent 2 6" xfId="9" xr:uid="{BB98D2D7-E5D2-4E98-B800-2E8915D01BB9}"/>
+    <cellStyle name="Accent 3 7" xfId="10" xr:uid="{95E5E423-3BBF-4BE1-B411-3434B0E3875F}"/>
+    <cellStyle name="Accent 4" xfId="11" xr:uid="{CD4FAFC4-4AF2-44FA-A590-ADDC340555C9}"/>
+    <cellStyle name="Bad 8" xfId="12" xr:uid="{960E38E0-463F-423F-A535-D99F806DA14C}"/>
+    <cellStyle name="Default 9" xfId="13" xr:uid="{DF3D57C2-6947-4F92-B5BB-C5AC4375ED4B}"/>
+    <cellStyle name="Error 10" xfId="14" xr:uid="{498CC707-665F-4FB8-B33B-6C84F420483A}"/>
+    <cellStyle name="Footnote 11" xfId="15" xr:uid="{65E5E541-0583-4B39-86BF-FCB27E5B749E}"/>
+    <cellStyle name="Good 12" xfId="16" xr:uid="{ACD98234-5F00-416D-AC97-AB9637353CF8}"/>
+    <cellStyle name="Heading 1 14" xfId="17" xr:uid="{EA71912F-23DC-4619-968E-43C15F9C609B}"/>
+    <cellStyle name="Heading 13" xfId="18" xr:uid="{4443B8FA-E05B-49A9-B2AF-81F7D84CBA32}"/>
+    <cellStyle name="Heading 2 15" xfId="19" xr:uid="{CE7BA955-1964-42BE-A167-47B48C6C907A}"/>
+    <cellStyle name="Hyperlink 2" xfId="20" xr:uid="{D2C2A2EE-AD60-418D-BBD6-29D931331F72}"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{61732208-7CA0-4B11-A373-9A79B6EA098D}"/>
+    <cellStyle name="Lien hypertexte 3" xfId="7" xr:uid="{9783B941-0010-482A-9D19-1A49087C996A}"/>
+    <cellStyle name="Neutral 16" xfId="21" xr:uid="{C34E335D-3673-435D-880A-D823A99428F7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{32958AC9-665C-4DBA-9163-560A4773402D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A890978E-EED5-4C5D-8CE1-9E6CE1D7BFD4}"/>
+    <cellStyle name="Note 17" xfId="22" xr:uid="{C4F30EB0-3380-48BB-B0DD-99F736C52E2F}"/>
+    <cellStyle name="Result 18" xfId="23" xr:uid="{0B296739-8CC5-41C1-9515-599F4B84EC30}"/>
+    <cellStyle name="Standaard 2" xfId="6" xr:uid="{8CD57168-95BB-4757-B45E-5DE9DD2C9326}"/>
+    <cellStyle name="Standaard 2 2" xfId="24" xr:uid="{8C250DF0-FBEA-4D8B-90DE-F85E2668C36D}"/>
+    <cellStyle name="Standaard 3" xfId="5" xr:uid="{B67ECB26-28A9-4273-A620-68E7F9C677C7}"/>
+    <cellStyle name="Standaard 3 2" xfId="25" xr:uid="{00F18E5C-8C6B-4312-9D45-752C65DE2135}"/>
+    <cellStyle name="Status 19" xfId="26" xr:uid="{3E7845E8-81C6-4EDC-B486-4ECBBFC8F053}"/>
+    <cellStyle name="Text 20" xfId="27" xr:uid="{17D0A120-B5F9-4792-B4F3-98EF1B47EF58}"/>
+    <cellStyle name="Warning 21" xfId="28" xr:uid="{9C9A845F-60B4-4E6E-AA30-8A202C3FDC85}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,25 +2976,25 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1">
+      <c r="A1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +3002,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="87" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +3014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +3024,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="72.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1437,7 +3036,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +3046,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1457,7 +3056,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="44.25" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +3068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="30" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1479,7 +3078,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="44.25" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +3090,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="44.25" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -1503,7 +3102,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1513,7 +3112,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -1523,15 +3122,15 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:4" ht="58.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1539,7 +3138,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="52.5" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1553,15 +3152,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A18" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="1:4" ht="58.5" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1569,7 +3168,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="44.25" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +3178,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
@@ -1602,29 +3201,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B0C65D-747D-4450-97BA-4845EDE66ADE}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1632,7 +3231,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -1642,7 +3241,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>64</v>
       </c>
@@ -1652,7 +3251,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +3261,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1672,7 +3271,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
@@ -1684,7 +3283,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
@@ -1696,7 +3295,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>76</v>
       </c>
@@ -1706,7 +3305,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>77</v>
       </c>
@@ -1716,7 +3315,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -1726,15 +3325,15 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1742,7 +3341,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
@@ -1756,15 +3355,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
         <v>87</v>
       </c>
@@ -1776,29 +3375,29 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
@@ -1810,21 +3409,21 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1844,6 +3443,782 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD67B621-09DE-4392-B9E3-CAA83F705DF0}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="180">
+      <c r="A4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="195">
+      <c r="A11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="22"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="75">
+      <c r="A16" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:4" ht="135">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="165">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="33"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="33"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="35"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="34"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="35"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="34"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB88758B-FEFF-43F0-9B74-07511A4CD275}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="120">
+      <c r="A6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="150">
+      <c r="A8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="75">
+      <c r="A13" s="15"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="15"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:4" ht="315">
+      <c r="A19" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="33"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:4" ht="192">
+      <c r="A22" s="35"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="35"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="34"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4BBB9A-43E8-4B1D-880D-828B2ACDD0BE}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="1:4" ht="175.5">
+      <c r="A4" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="1:4" ht="143.25">
+      <c r="A7" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="231">
+      <c r="A12" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72">
+      <c r="A17" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="1:4" ht="114.75">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1C384-FFE0-4A4D-8C09-0D215D36435B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -1851,25 +4226,25 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +4252,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -1887,7 +4262,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>64</v>
       </c>
@@ -1897,7 +4272,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>66</v>
       </c>
@@ -1907,7 +4282,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1917,7 +4292,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
@@ -1929,7 +4304,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="17.25">
       <c r="A9" s="8" t="s">
         <v>101</v>
       </c>
@@ -1941,7 +4316,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>104</v>
       </c>
@@ -1953,7 +4328,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>107</v>
       </c>
@@ -1963,15 +4338,15 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:4" ht="18">
+      <c r="A12" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +4354,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>109</v>
       </c>
@@ -1993,15 +4368,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
         <v>112</v>
       </c>
@@ -2015,7 +4390,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="85.5">
       <c r="A17" s="10" t="s">
         <v>116</v>
       </c>
@@ -2027,7 +4402,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
       <c r="B18" s="10"/>
       <c r="C18" s="12"/>
@@ -2044,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2052,29 +4427,29 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="98.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="98.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2088,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2099,7 +4474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +4482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +4490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +4498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2142,7 +4517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2150,7 +4525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2161,7 +4536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2169,12 +4544,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,12 +4557,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>

--- a/public/assets/BOs/Odin.xlsx
+++ b/public/assets/BOs/Odin.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3FC78-4905-48F9-BF0C-E90A8D0A8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DB725-CE29-4FF7-8D09-C5C49DE206E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
-    <sheet name="Feuil6" sheetId="7" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId6"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId7"/>
+    <sheet name="Feuil7" sheetId="8" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="7" r:id="rId6"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,93 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="213">
   <si>
     <t>Archaic</t>
   </si>
   <si>
-    <t>Food / Wood / Gold</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>0 / 3 / 0</t>
-  </si>
-  <si>
-    <t>Initial vils -&gt; wood until tree has 130 wood -&gt; hunt</t>
-  </si>
-  <si>
-    <t>Build an oxcart and send it to gold</t>
-  </si>
-  <si>
-    <t>0 / 3 / 1</t>
-  </si>
-  <si>
-    <t>1 dwarf gold</t>
-  </si>
-  <si>
-    <t>5 / 0 / 1</t>
-  </si>
-  <si>
-    <t>2 hunt</t>
-  </si>
-  <si>
-    <t>5 / 0 / 2</t>
-  </si>
-  <si>
-    <t>5 | 2 | 2</t>
-  </si>
-  <si>
     <t>2 wood</t>
-  </si>
-  <si>
-    <t>5 | 2 | 3</t>
-  </si>
-  <si>
-    <t>6 | 2 | 3</t>
-  </si>
-  <si>
-    <t>1 hunt</t>
-  </si>
-  <si>
-    <t>research handaxe</t>
-  </si>
-  <si>
-    <t>research instant pickaxe</t>
-  </si>
-  <si>
-    <t>6 | 4 | 3</t>
-  </si>
-  <si>
-    <t>xx | 4 | 3</t>
-  </si>
-  <si>
-    <t>xx food</t>
-  </si>
-  <si>
-    <t>xx | 4 | 4</t>
-  </si>
-  <si>
-    <t>xx | 5 | 4</t>
-  </si>
-  <si>
-    <t>make hersirs</t>
-  </si>
-  <si>
-    <t>Build temple asap</t>
-  </si>
-  <si>
-    <t>This build order is difficult and require some training before trying to use it in a real game.</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>great_hunt</t>
-  </si>
-  <si>
-    <t>OUTDATED - Eco upgrades - By Looki - advanced</t>
   </si>
   <si>
     <t>Food / Wood / Gold / Favor</t>
@@ -1933,13 +1853,258 @@
   </si>
   <si>
     <t>Special anatolia build - Léonce</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gatherers + ox cart to gold, 1 gatherer to straggler tree, gather 10 wood then go to hunt. </t>
+  </si>
+  <si>
+    <t>If defensive hunt, Berserk herds them into the TC. If aggressive hunt, gatherer lures it to the TC.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3+initial wood gatherer to Food. Berserk places temple ASAP. </t>
+  </si>
+  <si>
+    <t>Autoqueue dwarves to put to gold.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to Food. Queue a Hersir ASAP. </t>
+  </si>
+  <si>
+    <t>Hersir and Berserk should harass aggress Oracles from the Kronos player.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Place autoqueued gatherers onto food and dwarves onto gold. Once wood gatherer has gathered enough wood for another ox cart, place it onto food.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">8 / 0 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance with two dwarves.</t>
+  </si>
+  <si>
+    <t>Advance - x (2:42)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Take 4 food gatherers onto wood. Keep dwarves autoqueued.</t>
+  </si>
+  <si>
+    <t>Queue more Hersir from the Temple ASAP.</t>
+  </si>
+  <si>
+    <t>Classical (3:42)</t>
+  </si>
+  <si>
+    <t>4 / 4 / 5 / 2</t>
+  </si>
+  <si>
+    <t>Queue dwarves to gold until you survive the Krush.</t>
+  </si>
+  <si>
+    <t>Hersir rebuild Temple (if deconstructed) and build Great Hall. Raiding Cavalry are needed to fight Cheiroballista.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
+  </si>
+  <si>
+    <t>Anti Krush/early relic build - By Husksuppe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2314,6 +2479,57 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2515,11 +2731,8 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2586,6 +2799,59 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2627,41 +2893,17 @@
     <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="24" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="25" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Accent 1 5" xfId="8" xr:uid="{837A90DC-7FBC-4E71-AEF1-90BE83E03415}"/>
@@ -2969,218 +3211,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47CA131-95F3-4EFC-BDE4-73DAA8914DBA}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="50"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+    </row>
+    <row r="11" spans="1:4" s="50" customFormat="1" ht="15">
+      <c r="A11" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="57"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="C18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="81"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="59"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="59"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="61"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="60"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="61"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADDC42-BEB8-4B0C-8D96-AA8F9BC1E623}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D16" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A1" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="A1" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="87" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="72.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="87" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A15" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+    </row>
+    <row r="16" spans="1:4" ht="58.5" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A18" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+    </row>
+    <row r="19" spans="1:4" ht="58.5" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="72.75" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="44.25" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="44.25" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A15" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" spans="1:4" ht="58.5" thickBot="1">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="52.5" thickBot="1">
-      <c r="A17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-    </row>
-    <row r="19" spans="1:4" ht="58.5" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="44.25" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B0C65D-747D-4450-97BA-4845EDE66ADE}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -3208,226 +3665,226 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C18" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="D18" s="71"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="47"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3442,7 +3899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD67B621-09DE-4392-B9E3-CAA83F705DF0}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -3453,250 +3910,250 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="180">
+      <c r="A4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="195">
+      <c r="A11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="19"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="75">
+      <c r="A16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="1:4" ht="135">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="165">
+      <c r="A19" s="12"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="180">
-      <c r="A4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="195">
-      <c r="A11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="75">
-      <c r="A16" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="1:4" ht="135">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="165">
-      <c r="A19" s="15"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="17" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="33"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="33"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="34"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="34"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3710,7 +4167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB88758B-FEFF-43F0-9B74-07511A4CD275}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3721,266 +4178,266 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="120">
+      <c r="A6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="150">
+      <c r="A8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="75">
+      <c r="A13" s="12"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="12"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="150">
-      <c r="A4" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+    </row>
+    <row r="19" spans="1:4" ht="315">
+      <c r="A19" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="120">
-      <c r="A6" s="16" t="s">
+      <c r="B19" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16" t="s">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="30"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="150">
-      <c r="A8" s="16" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+    </row>
+    <row r="22" spans="1:4" ht="192">
+      <c r="A22" s="32"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="D22" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="17" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="31"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="75">
-      <c r="A13" s="15"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="60">
-      <c r="A14" s="15"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="1:4" ht="315">
-      <c r="A19" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="33"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:4" ht="192">
-      <c r="A22" s="35"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="34"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3995,216 +4452,216 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4BBB9A-43E8-4B1D-880D-828B2ACDD0BE}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="175.5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" ht="143.25">
+      <c r="A7" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="231">
+      <c r="A12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="44"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72">
+      <c r="A17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+    </row>
+    <row r="19" spans="1:4" ht="114.75">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49" t="s">
         <v>187</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25">
-      <c r="A6" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="55"/>
-    </row>
-    <row r="7" spans="1:4" ht="143.25">
-      <c r="A7" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="54"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="186">
-      <c r="A11" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="231">
-      <c r="A12" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="72">
-      <c r="A17" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-    </row>
-    <row r="19" spans="1:4" ht="114.75">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1C384-FFE0-4A4D-8C09-0D215D36435B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4229,184 +4686,184 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="17.25">
-      <c r="A9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="A9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18">
-      <c r="A12" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="A12" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>115</v>
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="85.5">
-      <c r="A17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>118</v>
+      <c r="A17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4417,157 +4874,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="98.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>